--- a/Templates/SprintPlanningV1.0.xlsx
+++ b/Templates/SprintPlanningV1.0.xlsx
@@ -9,20 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="924" activeTab="1"/>
+    <workbookView xWindow="3420" yWindow="460" windowWidth="25360" windowHeight="15820" tabRatio="924" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="17" r:id="rId1"/>
     <sheet name="Product Backlog " sheetId="14" r:id="rId2"/>
     <sheet name="Sprint 1 Backlog - Week 8-9" sheetId="18" r:id="rId3"/>
-    <sheet name="Sprint 2 Backlog - Week 8-9" sheetId="10" r:id="rId4"/>
+    <sheet name="Sprint 2 Backlog - Week 10-11" sheetId="10" r:id="rId4"/>
     <sheet name="Burndown Patterns Reference" sheetId="11" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Sprint 1 Backlog - Week 8-9'!$B$1:$L$81</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint 2 Backlog - Week 8-9'!$B$1:$L$81</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Sprint 2 Backlog - Week 10-11'!$B$1:$L$81</definedName>
     <definedName name="Saturday" localSheetId="2">'Sprint 1 Backlog - Week 8-9'!$V$16</definedName>
-    <definedName name="Saturday">'Sprint 2 Backlog - Week 8-9'!$V$16</definedName>
+    <definedName name="Saturday">'Sprint 2 Backlog - Week 10-11'!$V$16</definedName>
     <definedName name="Team_Members" localSheetId="1">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913" concurrentCalc="0"/>
@@ -4000,7 +4000,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2 Backlog - Week 8-9'!$H$68:$L$68</c:f>
+              <c:f>'Sprint 2 Backlog - Week 10-11'!$H$68:$L$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4040,7 +4040,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2 Backlog - Week 8-9'!$H$69:$L$69</c:f>
+              <c:f>'Sprint 2 Backlog - Week 10-11'!$H$69:$L$69</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4113,7 +4113,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2 Backlog - Week 8-9'!$H$70:$L$70</c:f>
+              <c:f>'Sprint 2 Backlog - Week 10-11'!$H$70:$L$70</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4983,7 +4983,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A13" sqref="A13"/>
     </sheetView>
@@ -13338,7 +13338,7 @@
   </sheetPr>
   <dimension ref="A1:X80"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="75" workbookViewId="0">
       <pane ySplit="17" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
